--- a/Grouping.xlsx
+++ b/Grouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu_ju\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\EMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405E9CB-2A30-4233-9834-262E59D1B4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539A96F-568B-47FC-AB90-5235FDE8527A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{D368D4D3-6687-4F2C-B565-946BAA310AE4}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{D368D4D3-6687-4F2C-B565-946BAA310AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="跨部门分组" sheetId="20" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TeamUser" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TeamUser!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TeamUser!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1090">
   <si>
     <t>最佳运营奖</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -728,7 +728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -807,7 +807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -973,7 +973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1005,7 +1005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1372,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1662,7 +1662,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3330,7 +3330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3350,7 +3350,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3370,7 +3370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4150,20 +4150,18 @@
     <t>Pai Shen</t>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Leader</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IsOraganiser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IsLeader</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IsOraganiser</t>
   </si>
 </sst>
 </file>
@@ -4171,13 +4169,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4185,13 +4183,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4341,7 +4339,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4547,16 +4545,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
@@ -4573,14 +4571,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4600,7 +4598,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4632,7 +4630,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4787,21 +4785,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4816,7 +4814,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4829,20 +4827,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4853,10 +4851,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4905,25 +4903,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4931,53 +4929,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5000,7 +4998,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5009,31 +5007,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{AC3B1B65-3E5A-4AB2-84EF-9CC0AD78A0C2}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{488C0FEF-C994-4E8C-8DEE-DA8D5604E73D}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{E3A7ADB7-5B1E-4BB1-8968-1CBEF8D338FE}"/>
     <cellStyle name="Normal 3 7" xfId="8" xr:uid="{ABC8ADAF-D88E-452D-A5B8-59AB0C5E1CF3}"/>
     <cellStyle name="Normal_OC_Payroll_GZP-200605" xfId="2" xr:uid="{0B943ACA-2BEC-4513-AE10-AEF20F689937}"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{F6203978-D025-4050-9799-A8663EABA2B8}"/>
     <cellStyle name="Style 1" xfId="5" xr:uid="{F025D5C8-FB49-4CE0-8A9C-995B76C1B013}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_new office telphone list" xfId="1" xr:uid="{40B36BED-6219-420B-82E8-8604C75BC424}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5064,7 +5062,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5369,15 +5367,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="3" width="17.375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="54.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="40" style="3" customWidth="1"/>
     <col min="7" max="7" width="27" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="B1" s="4" t="s">
         <v>763</v>
       </c>
@@ -5594,7 +5592,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5" thickBot="1">
+    <row r="20" spans="1:7" ht="26.25" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="169"/>
       <c r="C20" s="147" t="s">
@@ -5774,7 +5772,7 @@
     <row r="32" spans="1:7" ht="23.25" customHeight="1">
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25">
+    <row r="33" spans="1:12" ht="15">
       <c r="B33" s="162" t="s">
         <v>765</v>
       </c>
@@ -5980,7 +5978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.25">
+    <row r="46" spans="1:12" ht="15">
       <c r="A46" s="5">
         <v>5</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="105" customFormat="1" ht="14.25">
+    <row r="54" spans="1:9" s="105" customFormat="1" ht="15">
       <c r="A54" s="5">
         <v>13</v>
       </c>
@@ -6712,7 +6710,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="105" customFormat="1" ht="14.25">
+    <row r="83" spans="1:9" s="105" customFormat="1" ht="15">
       <c r="A83" s="43">
         <v>2</v>
       </c>
@@ -6874,7 +6872,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="43">
         <v>9</v>
       </c>
@@ -7109,7 +7107,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25">
+    <row r="102" spans="1:7" ht="15">
       <c r="A102" s="43">
         <v>2</v>
       </c>
@@ -7132,7 +7130,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25">
+    <row r="103" spans="1:7" ht="15">
       <c r="A103" s="43">
         <v>3</v>
       </c>
@@ -7155,7 +7153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25">
+    <row r="104" spans="1:7" ht="15">
       <c r="A104" s="43">
         <v>4</v>
       </c>
@@ -7178,7 +7176,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25">
+    <row r="105" spans="1:7" ht="15">
       <c r="A105" s="43">
         <v>5</v>
       </c>
@@ -7201,7 +7199,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25">
+    <row r="106" spans="1:7" ht="15">
       <c r="A106" s="43">
         <v>6</v>
       </c>
@@ -7224,7 +7222,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25">
+    <row r="107" spans="1:7" ht="15">
       <c r="A107" s="43">
         <v>7</v>
       </c>
@@ -7270,7 +7268,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25">
+    <row r="109" spans="1:7" ht="15">
       <c r="A109" s="43">
         <v>9</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="25.5">
       <c r="A112" s="43">
         <v>12</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.25">
+    <row r="122" spans="1:7" ht="15">
       <c r="A122" s="43">
         <v>3</v>
       </c>
@@ -7574,7 +7572,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14.25">
+    <row r="124" spans="1:7" ht="15">
       <c r="A124" s="43">
         <v>5</v>
       </c>
@@ -7827,7 +7825,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25">
+    <row r="135" spans="1:7" ht="15">
       <c r="A135" s="5">
         <v>16</v>
       </c>
@@ -7850,7 +7848,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14.25">
+    <row r="136" spans="1:7" ht="15">
       <c r="A136" s="43">
         <v>17</v>
       </c>
@@ -7878,7 +7876,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.25">
+    <row r="139" spans="1:7" ht="15">
       <c r="A139" s="43">
         <v>1</v>
       </c>
@@ -7993,7 +7991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="25.5">
       <c r="A144" s="43">
         <v>6</v>
       </c>
@@ -8223,7 +8221,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="14.25">
+    <row r="154" spans="1:7" ht="15">
       <c r="A154" s="43">
         <v>16</v>
       </c>
@@ -8274,7 +8272,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="14.25">
+    <row r="158" spans="1:7" ht="15">
       <c r="A158" s="43">
         <v>1</v>
       </c>
@@ -8343,7 +8341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="14.25">
+    <row r="161" spans="1:7" ht="15">
       <c r="A161" s="43">
         <v>4</v>
       </c>
@@ -8458,7 +8456,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="104" customFormat="1" ht="14.25">
+    <row r="166" spans="1:7" s="104" customFormat="1" ht="15">
       <c r="A166" s="43">
         <v>9</v>
       </c>
@@ -8481,7 +8479,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="14.25">
+    <row r="167" spans="1:7" ht="15">
       <c r="A167" s="43">
         <v>10</v>
       </c>
@@ -8596,7 +8594,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="14.25">
+    <row r="172" spans="1:7" ht="15">
       <c r="A172" s="43">
         <v>15</v>
       </c>
@@ -8642,7 +8640,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="14.25">
+    <row r="174" spans="1:7" ht="15">
       <c r="A174" s="43">
         <v>17</v>
       </c>
@@ -9135,7 +9133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="14.25">
+    <row r="199" spans="1:7" ht="15">
       <c r="A199" s="43">
         <v>4</v>
       </c>
@@ -9181,7 +9179,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="14.25">
+    <row r="201" spans="1:7" ht="15">
       <c r="A201" s="43">
         <v>6</v>
       </c>
@@ -9319,7 +9317,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="14.25">
+    <row r="207" spans="1:7" ht="15">
       <c r="A207" s="43">
         <v>12</v>
       </c>
@@ -9342,7 +9340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" ht="25.5">
       <c r="A208" s="43">
         <v>13</v>
       </c>
@@ -9411,7 +9409,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="14.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="43">
         <v>16</v>
       </c>
@@ -9434,7 +9432,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="14.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="43">
         <v>17</v>
       </c>
@@ -9494,7 +9492,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="105" customFormat="1" ht="14.25">
+    <row r="216" spans="1:9" s="105" customFormat="1" ht="15">
       <c r="A216" s="43">
         <v>2</v>
       </c>
@@ -9564,7 +9562,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="14.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="43">
         <v>5</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="43">
         <v>16</v>
       </c>
@@ -9840,7 +9838,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" ht="25.5">
       <c r="A231" s="43">
         <v>17</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="43">
         <v>5</v>
       </c>
@@ -10006,7 +10004,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="105" customFormat="1" ht="14.25">
+    <row r="240" spans="1:9" s="105" customFormat="1" ht="15">
       <c r="A240" s="43">
         <v>7</v>
       </c>
@@ -10030,7 +10028,7 @@
       </c>
       <c r="I240" s="113"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" ht="25.5">
       <c r="A241" s="43">
         <v>8</v>
       </c>
@@ -10076,7 +10074,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="14.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="43">
         <v>10</v>
       </c>
@@ -10191,7 +10189,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="43">
         <v>15</v>
       </c>
@@ -10237,7 +10235,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" ht="25.5">
       <c r="A250" s="43">
         <v>17</v>
       </c>
@@ -10265,7 +10263,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="43">
         <v>1</v>
       </c>
@@ -10288,7 +10286,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="105" customFormat="1" ht="14.25">
+    <row r="254" spans="1:9" s="105" customFormat="1" ht="15">
       <c r="A254" s="43">
         <v>2</v>
       </c>
@@ -10450,7 +10448,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" ht="25.5">
       <c r="A261" s="43">
         <v>9</v>
       </c>
@@ -10473,7 +10471,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="14.25">
+    <row r="262" spans="1:7" ht="15">
       <c r="A262" s="43">
         <v>10</v>
       </c>
@@ -10834,24 +10832,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E8C431-79DA-4ECF-88E4-7A3545AC368C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1" t="s">
         <v>1086</v>
       </c>
-      <c r="B1" t="s">
-        <v>1087</v>
-      </c>
       <c r="C1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11010,23 +11008,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72895C64-8B15-4F45-A652-879DD77CC814}">
-  <dimension ref="A1:K223"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="159" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="157" customFormat="1">
+    <row r="1" spans="1:7" s="157" customFormat="1">
       <c r="A1" s="157" t="s">
         <v>1070</v>
       </c>
@@ -11046,10 +11044,10 @@
         <v>1075</v>
       </c>
       <c r="G1" s="157" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>751</v>
       </c>
@@ -11071,11 +11069,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>751</v>
       </c>
@@ -11097,11 +11092,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>751</v>
       </c>
@@ -11123,11 +11115,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>751</v>
       </c>
@@ -11149,11 +11138,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -11175,11 +11161,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>751</v>
       </c>
@@ -11201,11 +11184,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>751</v>
       </c>
@@ -11227,11 +11207,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>751</v>
       </c>
@@ -11253,11 +11230,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>751</v>
       </c>
@@ -11279,11 +11253,8 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -11305,11 +11276,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>751</v>
       </c>
@@ -11331,11 +11299,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>751</v>
       </c>
@@ -11357,11 +11322,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>751</v>
       </c>
@@ -11383,11 +11345,8 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>751</v>
       </c>
@@ -11409,11 +11368,8 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>751</v>
       </c>
@@ -11435,11 +11391,8 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>751</v>
       </c>
@@ -11461,11 +11414,8 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>751</v>
       </c>
@@ -11487,11 +11437,8 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>752</v>
       </c>
@@ -11513,11 +11460,8 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>752</v>
       </c>
@@ -11539,11 +11483,8 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>752</v>
       </c>
@@ -11565,11 +11506,8 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>752</v>
       </c>
@@ -11591,11 +11529,8 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>752</v>
       </c>
@@ -11617,11 +11552,8 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>752</v>
       </c>
@@ -11643,11 +11575,8 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>752</v>
       </c>
@@ -11669,11 +11598,8 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>752</v>
       </c>
@@ -11695,11 +11621,8 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>752</v>
       </c>
@@ -11721,11 +11644,8 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>752</v>
       </c>
@@ -11747,11 +11667,8 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>752</v>
       </c>
@@ -11773,11 +11690,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>752</v>
       </c>
@@ -11799,11 +11713,8 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>752</v>
       </c>
@@ -11825,11 +11736,8 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>752</v>
       </c>
@@ -11851,11 +11759,8 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>752</v>
       </c>
@@ -11877,11 +11782,8 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="K33" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>752</v>
       </c>
@@ -11903,11 +11805,8 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="K34" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>752</v>
       </c>
@@ -11929,11 +11828,8 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="K35" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>753</v>
       </c>
@@ -11955,11 +11851,8 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>753</v>
       </c>
@@ -11981,11 +11874,8 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>753</v>
       </c>
@@ -12007,11 +11897,8 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="K38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>753</v>
       </c>
@@ -12033,11 +11920,8 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="K39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>753</v>
       </c>
@@ -12059,11 +11943,8 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="K40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>753</v>
       </c>
@@ -12085,11 +11966,8 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="K41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>753</v>
       </c>
@@ -12111,11 +11989,8 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="K42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>753</v>
       </c>
@@ -12137,11 +12012,8 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="K43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>753</v>
       </c>
@@ -12163,11 +12035,8 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="K44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>753</v>
       </c>
@@ -12189,11 +12058,8 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="K45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>753</v>
       </c>
@@ -12215,11 +12081,8 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="K46" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>753</v>
       </c>
@@ -12241,11 +12104,8 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="K47" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>753</v>
       </c>
@@ -12267,11 +12127,8 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="K48" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>753</v>
       </c>
@@ -12293,11 +12150,8 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="K49" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>753</v>
       </c>
@@ -12319,11 +12173,8 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="K50" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>753</v>
       </c>
@@ -12345,11 +12196,8 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="K51" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>753</v>
       </c>
@@ -12371,11 +12219,8 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="K52" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>754</v>
       </c>
@@ -12397,11 +12242,8 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="K53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>754</v>
       </c>
@@ -12423,11 +12265,8 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="K54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>754</v>
       </c>
@@ -12449,11 +12288,8 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="K55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>754</v>
       </c>
@@ -12475,11 +12311,8 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="K56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>754</v>
       </c>
@@ -12501,11 +12334,8 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="K57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>754</v>
       </c>
@@ -12527,11 +12357,8 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="K58" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>754</v>
       </c>
@@ -12553,11 +12380,8 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="K59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>754</v>
       </c>
@@ -12579,11 +12403,8 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="K60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>754</v>
       </c>
@@ -12605,11 +12426,8 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="K61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>754</v>
       </c>
@@ -12631,11 +12449,8 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="K62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>754</v>
       </c>
@@ -12657,11 +12472,8 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="K63" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>754</v>
       </c>
@@ -12683,11 +12495,8 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="K64" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>754</v>
       </c>
@@ -12709,11 +12518,8 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="K65" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>754</v>
       </c>
@@ -12735,11 +12541,8 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="K66" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>754</v>
       </c>
@@ -12761,11 +12564,8 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="K67" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>754</v>
       </c>
@@ -12787,11 +12587,8 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="K68" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>754</v>
       </c>
@@ -12813,11 +12610,8 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="K69" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>755</v>
       </c>
@@ -12839,11 +12633,8 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="K70" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>755</v>
       </c>
@@ -12865,11 +12656,8 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="K71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>755</v>
       </c>
@@ -12891,11 +12679,8 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="K72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>755</v>
       </c>
@@ -12917,11 +12702,8 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="K73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>755</v>
       </c>
@@ -12943,11 +12725,8 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="K74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>755</v>
       </c>
@@ -12969,11 +12748,8 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="K75" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>755</v>
       </c>
@@ -12995,11 +12771,8 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="K76" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>755</v>
       </c>
@@ -13021,11 +12794,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="K77" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>755</v>
       </c>
@@ -13047,11 +12817,8 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="K78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>755</v>
       </c>
@@ -13073,11 +12840,8 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="K79" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>755</v>
       </c>
@@ -13099,11 +12863,8 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="K80" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>755</v>
       </c>
@@ -13125,11 +12886,8 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="K81" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>755</v>
       </c>
@@ -13151,11 +12909,8 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="K82" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>755</v>
       </c>
@@ -13177,11 +12932,8 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="K83" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>755</v>
       </c>
@@ -13203,11 +12955,8 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="K84" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>755</v>
       </c>
@@ -13229,11 +12978,8 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="K85" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>755</v>
       </c>
@@ -13255,11 +13001,8 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="K86" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>756</v>
       </c>
@@ -13281,11 +13024,8 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="K87" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>756</v>
       </c>
@@ -13307,11 +13047,8 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="K88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>756</v>
       </c>
@@ -13333,11 +13070,8 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="K89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>756</v>
       </c>
@@ -13359,11 +13093,8 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="K90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>756</v>
       </c>
@@ -13385,11 +13116,8 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="K91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>756</v>
       </c>
@@ -13411,11 +13139,8 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="K92" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>756</v>
       </c>
@@ -13437,11 +13162,8 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="K93" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>756</v>
       </c>
@@ -13463,11 +13185,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="K94" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>756</v>
       </c>
@@ -13489,11 +13208,8 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="K95" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>756</v>
       </c>
@@ -13515,11 +13231,8 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="K96" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>756</v>
       </c>
@@ -13541,11 +13254,8 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="K97" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>756</v>
       </c>
@@ -13567,11 +13277,8 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="K98" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>756</v>
       </c>
@@ -13593,11 +13300,8 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="K99" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>756</v>
       </c>
@@ -13619,11 +13323,8 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="K100" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>756</v>
       </c>
@@ -13645,11 +13346,8 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="K101" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>756</v>
       </c>
@@ -13671,11 +13369,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="K102" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>756</v>
       </c>
@@ -13697,11 +13392,8 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="K103" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>757</v>
       </c>
@@ -13723,11 +13415,8 @@
       <c r="G104">
         <v>1</v>
       </c>
-      <c r="K104" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>757</v>
       </c>
@@ -13749,11 +13438,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="K105" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>757</v>
       </c>
@@ -13775,11 +13461,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="K106" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>757</v>
       </c>
@@ -13801,11 +13484,8 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="K107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>757</v>
       </c>
@@ -13827,11 +13507,8 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="K108" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>757</v>
       </c>
@@ -13853,11 +13530,8 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="K109" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>757</v>
       </c>
@@ -13879,11 +13553,8 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="K110" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>757</v>
       </c>
@@ -13905,11 +13576,8 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="K111" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>757</v>
       </c>
@@ -13931,11 +13599,8 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="K112" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>757</v>
       </c>
@@ -13957,11 +13622,8 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="K113" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>757</v>
       </c>
@@ -13983,11 +13645,8 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="K114" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>757</v>
       </c>
@@ -14009,11 +13668,8 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="K115" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>757</v>
       </c>
@@ -14035,11 +13691,8 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="K116" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>757</v>
       </c>
@@ -14061,11 +13714,8 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="K117" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>757</v>
       </c>
@@ -14087,11 +13737,8 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="K118" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>757</v>
       </c>
@@ -14113,11 +13760,8 @@
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="K119" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>757</v>
       </c>
@@ -14139,11 +13783,8 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="K120" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>758</v>
       </c>
@@ -14165,11 +13806,8 @@
       <c r="G121">
         <v>1</v>
       </c>
-      <c r="K121" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>758</v>
       </c>
@@ -14191,11 +13829,8 @@
       <c r="G122">
         <v>1</v>
       </c>
-      <c r="K122" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>758</v>
       </c>
@@ -14217,11 +13852,8 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="K123" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>758</v>
       </c>
@@ -14243,11 +13875,8 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="K124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>758</v>
       </c>
@@ -14269,11 +13898,8 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="K125" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>758</v>
       </c>
@@ -14295,11 +13921,8 @@
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="K126" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>758</v>
       </c>
@@ -14321,11 +13944,8 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="K127" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>758</v>
       </c>
@@ -14347,11 +13967,8 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="K128" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>758</v>
       </c>
@@ -14373,11 +13990,8 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="K129" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>758</v>
       </c>
@@ -14399,11 +14013,8 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="K130" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>758</v>
       </c>
@@ -14425,11 +14036,8 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="K131" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>758</v>
       </c>
@@ -14451,11 +14059,8 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="K132" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>758</v>
       </c>
@@ -14477,11 +14082,8 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="K133" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>758</v>
       </c>
@@ -14503,11 +14105,8 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="K134" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>758</v>
       </c>
@@ -14529,11 +14128,8 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="K135" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>758</v>
       </c>
@@ -14555,11 +14151,8 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="K136" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>758</v>
       </c>
@@ -14581,11 +14174,8 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="K137" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>759</v>
       </c>
@@ -14607,11 +14197,8 @@
       <c r="G138">
         <v>1</v>
       </c>
-      <c r="K138" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>759</v>
       </c>
@@ -14633,11 +14220,8 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="K139" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>759</v>
       </c>
@@ -14659,11 +14243,8 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="K140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>759</v>
       </c>
@@ -14685,11 +14266,8 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="K141" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>759</v>
       </c>
@@ -14711,11 +14289,8 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="K142" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>759</v>
       </c>
@@ -14737,11 +14312,8 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="K143" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>759</v>
       </c>
@@ -14763,11 +14335,8 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="K144" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>759</v>
       </c>
@@ -14789,11 +14358,8 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="K145" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>759</v>
       </c>
@@ -14815,11 +14381,8 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="K146" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>759</v>
       </c>
@@ -14841,11 +14404,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="K147" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>759</v>
       </c>
@@ -14867,11 +14427,8 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="K148" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>759</v>
       </c>
@@ -14893,11 +14450,8 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="K149" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>759</v>
       </c>
@@ -14919,11 +14473,8 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="K150" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>759</v>
       </c>
@@ -14945,11 +14496,8 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="K151" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>759</v>
       </c>
@@ -14971,11 +14519,8 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="K152" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>759</v>
       </c>
@@ -14997,11 +14542,8 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="K153" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>759</v>
       </c>
@@ -15023,11 +14565,8 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="K154" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>760</v>
       </c>
@@ -15049,11 +14588,8 @@
       <c r="G155">
         <v>1</v>
       </c>
-      <c r="K155" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>760</v>
       </c>
@@ -15075,11 +14611,8 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="K156" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>760</v>
       </c>
@@ -15101,11 +14634,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="K157" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>760</v>
       </c>
@@ -15127,11 +14657,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="K158" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>760</v>
       </c>
@@ -15153,11 +14680,8 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="K159" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>760</v>
       </c>
@@ -15179,11 +14703,8 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="K160" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>760</v>
       </c>
@@ -15205,11 +14726,8 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="K161" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>760</v>
       </c>
@@ -15231,11 +14749,8 @@
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="K162" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>760</v>
       </c>
@@ -15257,11 +14772,8 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="K163" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>760</v>
       </c>
@@ -15283,11 +14795,8 @@
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="K164" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>760</v>
       </c>
@@ -15309,11 +14818,8 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="K165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>760</v>
       </c>
@@ -15335,11 +14841,8 @@
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="K166" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>760</v>
       </c>
@@ -15361,11 +14864,8 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="K167" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>760</v>
       </c>
@@ -15387,11 +14887,8 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="K168" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>760</v>
       </c>
@@ -15413,11 +14910,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="K169" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>760</v>
       </c>
@@ -15439,11 +14933,8 @@
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="K170" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>760</v>
       </c>
@@ -15465,11 +14956,8 @@
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="K171" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>761</v>
       </c>
@@ -15491,11 +14979,8 @@
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="K172" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>761</v>
       </c>
@@ -15517,11 +15002,8 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="K173" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>761</v>
       </c>
@@ -15543,11 +15025,8 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="K174" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>761</v>
       </c>
@@ -15569,11 +15048,8 @@
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="K175" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>761</v>
       </c>
@@ -15595,11 +15071,8 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="K176" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>761</v>
       </c>
@@ -15621,11 +15094,8 @@
       <c r="G177">
         <v>0</v>
       </c>
-      <c r="K177" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>761</v>
       </c>
@@ -15647,11 +15117,8 @@
       <c r="G178">
         <v>0</v>
       </c>
-      <c r="K178" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>761</v>
       </c>
@@ -15673,11 +15140,8 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="K179" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>761</v>
       </c>
@@ -15699,11 +15163,8 @@
       <c r="G180">
         <v>0</v>
       </c>
-      <c r="K180" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>761</v>
       </c>
@@ -15725,11 +15186,8 @@
       <c r="G181">
         <v>0</v>
       </c>
-      <c r="K181" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>761</v>
       </c>
@@ -15751,11 +15209,8 @@
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="K182" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>761</v>
       </c>
@@ -15777,11 +15232,8 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="K183" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>761</v>
       </c>
@@ -15803,11 +15255,8 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="K184" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>761</v>
       </c>
@@ -15829,11 +15278,8 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="K185" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>761</v>
       </c>
@@ -15855,11 +15301,8 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="K186" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>761</v>
       </c>
@@ -15881,11 +15324,8 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="K187" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>761</v>
       </c>
@@ -15907,11 +15347,8 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="K188" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>762</v>
       </c>
@@ -15933,11 +15370,8 @@
       <c r="G189">
         <v>1</v>
       </c>
-      <c r="K189" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>762</v>
       </c>
@@ -15959,11 +15393,8 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="K190" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>762</v>
       </c>
@@ -15985,11 +15416,8 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="K191" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>762</v>
       </c>
@@ -16011,11 +15439,8 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="K192" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>762</v>
       </c>
@@ -16037,11 +15462,8 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="K193" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>762</v>
       </c>
@@ -16063,11 +15485,8 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="K194" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>762</v>
       </c>
@@ -16089,11 +15508,8 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="K195" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>762</v>
       </c>
@@ -16115,11 +15531,8 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="K196" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>762</v>
       </c>
@@ -16141,11 +15554,8 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="K197" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>762</v>
       </c>
@@ -16167,11 +15577,8 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="K198" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>762</v>
       </c>
@@ -16193,11 +15600,8 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="K199" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>762</v>
       </c>
@@ -16219,11 +15623,8 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="K200" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>762</v>
       </c>
@@ -16245,11 +15646,8 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="K201" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>762</v>
       </c>
@@ -16271,11 +15669,8 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="K202" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>762</v>
       </c>
@@ -16297,11 +15692,8 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="K203" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>762</v>
       </c>
@@ -16323,11 +15715,8 @@
       <c r="G204">
         <v>0</v>
       </c>
-      <c r="K204" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>762</v>
       </c>
@@ -16344,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>766</v>
       </c>
@@ -16361,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>766</v>
       </c>
@@ -16378,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>766</v>
       </c>
@@ -16652,7 +16041,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{BBF53409-EABA-4B42-8DF5-2805C58F7D49}"/>
+  <autoFilter ref="A1:G1" xr:uid="{BBF53409-EABA-4B42-8DF5-2805C58F7D49}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F71" r:id="rId1" xr:uid="{3EB02F2A-265D-44A2-8CAF-245FE0F53156}"/>

--- a/Grouping.xlsx
+++ b/Grouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\EMR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\EMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539A96F-568B-47FC-AB90-5235FDE8527A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D845F6-9278-4C83-8479-DE038B2E38A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{D368D4D3-6687-4F2C-B565-946BAA310AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{D368D4D3-6687-4F2C-B565-946BAA310AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="跨部门分组" sheetId="20" r:id="rId1"/>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -728,7 +728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -807,7 +807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -973,7 +973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1005,7 +1005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1247,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1372,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1662,7 +1662,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3330,7 +3330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3350,7 +3350,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3370,7 +3370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4063,42 +4063,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第2组</t>
-  </si>
-  <si>
-    <t>第3组</t>
-  </si>
-  <si>
-    <t>第1组</t>
-  </si>
-  <si>
-    <t>第4组</t>
-  </si>
-  <si>
-    <t>第5组</t>
-  </si>
-  <si>
-    <t>第6组</t>
-  </si>
-  <si>
-    <t>第7组</t>
-  </si>
-  <si>
-    <t>第8组</t>
-  </si>
-  <si>
-    <t>第9组</t>
-  </si>
-  <si>
-    <t>第10组</t>
-  </si>
-  <si>
-    <t>第11组</t>
-  </si>
-  <si>
-    <t>第12组</t>
-  </si>
-  <si>
     <t>吴一凡&amp;徐方明</t>
   </si>
   <si>
@@ -4162,6 +4126,54 @@
   </si>
   <si>
     <t>IsOraganiser</t>
+  </si>
+  <si>
+    <t>为艾定格（照相馆）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-Land游戏乐园（游戏店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾家口杯店（扇子/杯子店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾家甜汤（中华小吃店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾上花开（插花店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿野仙踪（绿植店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo法店（美妆店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾不释手（手工饰品店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾健康果饮（水果饮料店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMI魔术店（魔术小店铺）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾美味西餐厅（西餐店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜艾甜品铺（甜品店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4169,13 +4181,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4183,13 +4195,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4339,7 +4351,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4545,16 +4557,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
@@ -4571,14 +4583,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4598,7 +4610,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4630,7 +4642,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4785,21 +4797,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4814,7 +4826,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4827,20 +4839,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4851,10 +4863,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4903,25 +4915,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4929,53 +4941,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4998,7 +5010,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5007,31 +5019,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{AC3B1B65-3E5A-4AB2-84EF-9CC0AD78A0C2}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{488C0FEF-C994-4E8C-8DEE-DA8D5604E73D}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{E3A7ADB7-5B1E-4BB1-8968-1CBEF8D338FE}"/>
     <cellStyle name="Normal 3 7" xfId="8" xr:uid="{ABC8ADAF-D88E-452D-A5B8-59AB0C5E1CF3}"/>
     <cellStyle name="Normal_OC_Payroll_GZP-200605" xfId="2" xr:uid="{0B943ACA-2BEC-4513-AE10-AEF20F689937}"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{F6203978-D025-4050-9799-A8663EABA2B8}"/>
     <cellStyle name="Style 1" xfId="5" xr:uid="{F025D5C8-FB49-4CE0-8A9C-995B76C1B013}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_new office telphone list" xfId="1" xr:uid="{40B36BED-6219-420B-82E8-8604C75BC424}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5062,7 +5074,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5367,15 +5379,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="40" style="3" customWidth="1"/>
     <col min="7" max="7" width="27" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="14.25">
       <c r="B1" s="4" t="s">
         <v>763</v>
       </c>
@@ -5592,7 +5604,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" thickBot="1">
+    <row r="20" spans="1:7" ht="13.5" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="169"/>
       <c r="C20" s="147" t="s">
@@ -5772,7 +5784,7 @@
     <row r="32" spans="1:7" ht="23.25" customHeight="1">
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="15">
+    <row r="33" spans="1:12" ht="14.25">
       <c r="B33" s="162" t="s">
         <v>765</v>
       </c>
@@ -5978,7 +5990,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15">
+    <row r="46" spans="1:12" ht="14.25">
       <c r="A46" s="5">
         <v>5</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="105" customFormat="1" ht="15">
+    <row r="54" spans="1:9" s="105" customFormat="1" ht="14.25">
       <c r="A54" s="5">
         <v>13</v>
       </c>
@@ -6710,7 +6722,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="105" customFormat="1" ht="15">
+    <row r="83" spans="1:9" s="105" customFormat="1" ht="14.25">
       <c r="A83" s="43">
         <v>2</v>
       </c>
@@ -6872,7 +6884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="14.25">
       <c r="A90" s="43">
         <v>9</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="43">
         <v>2</v>
       </c>
@@ -7130,7 +7142,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15">
+    <row r="103" spans="1:7" ht="14.25">
       <c r="A103" s="43">
         <v>3</v>
       </c>
@@ -7153,7 +7165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15">
+    <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="43">
         <v>4</v>
       </c>
@@ -7176,7 +7188,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15">
+    <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="43">
         <v>5</v>
       </c>
@@ -7199,7 +7211,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15">
+    <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="43">
         <v>6</v>
       </c>
@@ -7222,7 +7234,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15">
+    <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="43">
         <v>7</v>
       </c>
@@ -7268,7 +7280,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15">
+    <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="43">
         <v>9</v>
       </c>
@@ -7337,7 +7349,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="25.5">
+    <row r="112" spans="1:7">
       <c r="A112" s="43">
         <v>12</v>
       </c>
@@ -7526,7 +7538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="43">
         <v>3</v>
       </c>
@@ -7572,7 +7584,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="43">
         <v>5</v>
       </c>
@@ -7825,7 +7837,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15">
+    <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="5">
         <v>16</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15">
+    <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="43">
         <v>17</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15">
+    <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="43">
         <v>1</v>
       </c>
@@ -7991,7 +8003,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="25.5">
+    <row r="144" spans="1:7">
       <c r="A144" s="43">
         <v>6</v>
       </c>
@@ -8221,7 +8233,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15">
+    <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="43">
         <v>16</v>
       </c>
@@ -8272,7 +8284,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15">
+    <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="43">
         <v>1</v>
       </c>
@@ -8341,7 +8353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15">
+    <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="43">
         <v>4</v>
       </c>
@@ -8456,7 +8468,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="104" customFormat="1" ht="15">
+    <row r="166" spans="1:7" s="104" customFormat="1" ht="14.25">
       <c r="A166" s="43">
         <v>9</v>
       </c>
@@ -8479,7 +8491,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15">
+    <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="43">
         <v>10</v>
       </c>
@@ -8594,7 +8606,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15">
+    <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="43">
         <v>15</v>
       </c>
@@ -8640,7 +8652,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15">
+    <row r="174" spans="1:7" ht="14.25">
       <c r="A174" s="43">
         <v>17</v>
       </c>
@@ -9133,7 +9145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15">
+    <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="43">
         <v>4</v>
       </c>
@@ -9179,7 +9191,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15">
+    <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="43">
         <v>6</v>
       </c>
@@ -9317,7 +9329,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15">
+    <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="43">
         <v>12</v>
       </c>
@@ -9340,7 +9352,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="25.5">
+    <row r="208" spans="1:7">
       <c r="A208" s="43">
         <v>13</v>
       </c>
@@ -9409,7 +9421,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="14.25">
       <c r="A211" s="43">
         <v>16</v>
       </c>
@@ -9432,7 +9444,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="14.25">
       <c r="A212" s="43">
         <v>17</v>
       </c>
@@ -9492,7 +9504,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="105" customFormat="1" ht="15">
+    <row r="216" spans="1:9" s="105" customFormat="1" ht="14.25">
       <c r="A216" s="43">
         <v>2</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="14.25">
       <c r="A219" s="43">
         <v>5</v>
       </c>
@@ -9815,7 +9827,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="14.25">
       <c r="A230" s="43">
         <v>16</v>
       </c>
@@ -9838,7 +9850,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="25.5">
+    <row r="231" spans="1:9">
       <c r="A231" s="43">
         <v>17</v>
       </c>
@@ -9958,7 +9970,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="14.25">
       <c r="A238" s="43">
         <v>5</v>
       </c>
@@ -10004,7 +10016,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="105" customFormat="1" ht="15">
+    <row r="240" spans="1:9" s="105" customFormat="1" ht="14.25">
       <c r="A240" s="43">
         <v>7</v>
       </c>
@@ -10028,7 +10040,7 @@
       </c>
       <c r="I240" s="113"/>
     </row>
-    <row r="241" spans="1:9" ht="25.5">
+    <row r="241" spans="1:9">
       <c r="A241" s="43">
         <v>8</v>
       </c>
@@ -10074,7 +10086,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="14.25">
       <c r="A243" s="43">
         <v>10</v>
       </c>
@@ -10189,7 +10201,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="14.25">
       <c r="A248" s="43">
         <v>15</v>
       </c>
@@ -10235,7 +10247,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="25.5">
+    <row r="250" spans="1:9">
       <c r="A250" s="43">
         <v>17</v>
       </c>
@@ -10263,7 +10275,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="14.25">
       <c r="A253" s="43">
         <v>1</v>
       </c>
@@ -10286,7 +10298,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="105" customFormat="1" ht="15">
+    <row r="254" spans="1:9" s="105" customFormat="1" ht="14.25">
       <c r="A254" s="43">
         <v>2</v>
       </c>
@@ -10448,7 +10460,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="25.5">
+    <row r="261" spans="1:7">
       <c r="A261" s="43">
         <v>9</v>
       </c>
@@ -10471,7 +10483,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15">
+    <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="43">
         <v>10</v>
       </c>
@@ -10832,29 +10844,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E8C431-79DA-4ECF-88E4-7A3545AC368C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -10865,10 +10878,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1057</v>
+        <v>1079</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>481</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10876,10 +10889,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1058</v>
+        <v>1080</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>715</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10887,7 +10900,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1060</v>
+        <v>1081</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
@@ -10898,7 +10911,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1061</v>
+        <v>1082</v>
       </c>
       <c r="B6" t="s">
         <v>281</v>
@@ -10909,7 +10922,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="B7" t="s">
         <v>318</v>
@@ -10920,7 +10933,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1063</v>
+        <v>1084</v>
       </c>
       <c r="B8" t="s">
         <v>265</v>
@@ -10931,10 +10944,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="B9" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10942,7 +10955,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1065</v>
+        <v>1086</v>
       </c>
       <c r="B10" t="s">
         <v>545</v>
@@ -10953,7 +10966,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="B11" t="s">
         <v>577</v>
@@ -10964,7 +10977,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1067</v>
+        <v>1088</v>
       </c>
       <c r="B12" t="s">
         <v>701</v>
@@ -10975,7 +10988,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="B13" t="s">
         <v>381</v>
@@ -10994,7 +11007,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11003,6 +11016,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11010,46 +11024,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72895C64-8B15-4F45-A652-879DD77CC814}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:A205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="159" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="157" customFormat="1">
       <c r="A1" s="157" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="B1" s="157" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="C1" s="158" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="E1" s="157" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="F1" s="157" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G1" s="157" t="s">
         <v>1075</v>
-      </c>
-      <c r="G1" s="157" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B2" t="s">
         <v>570</v>
@@ -11072,7 +11086,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -11095,7 +11109,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B4" t="s">
         <v>275</v>
@@ -11118,7 +11132,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -11141,7 +11155,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -11164,7 +11178,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -11187,7 +11201,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -11210,7 +11224,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B9" t="s">
         <v>215</v>
@@ -11233,7 +11247,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B10" t="s">
         <v>267</v>
@@ -11256,7 +11270,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B11" t="s">
         <v>436</v>
@@ -11279,7 +11293,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B12" t="s">
         <v>341</v>
@@ -11302,7 +11316,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B13" t="s">
         <v>341</v>
@@ -11325,7 +11339,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B14" t="s">
         <v>575</v>
@@ -11348,7 +11362,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B15" t="s">
         <v>575</v>
@@ -11371,7 +11385,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B16" t="s">
         <v>575</v>
@@ -11394,7 +11408,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B17" t="s">
         <v>575</v>
@@ -11417,7 +11431,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B18" t="s">
         <v>575</v>
@@ -11440,7 +11454,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -11458,12 +11472,12 @@
         <v>161</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B20" t="s">
         <v>570</v>
@@ -11486,7 +11500,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -11509,7 +11523,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -11532,7 +11546,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -11555,7 +11569,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -11578,7 +11592,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B25" t="s">
         <v>215</v>
@@ -11601,7 +11615,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B26" t="s">
         <v>467</v>
@@ -11624,7 +11638,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B27" t="s">
         <v>827</v>
@@ -11647,7 +11661,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B28" t="s">
         <v>341</v>
@@ -11670,7 +11684,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B29" t="s">
         <v>341</v>
@@ -11693,7 +11707,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B30" t="s">
         <v>341</v>
@@ -11716,7 +11730,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B31" t="s">
         <v>467</v>
@@ -11734,12 +11748,12 @@
         <v>483</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B32" t="s">
         <v>467</v>
@@ -11762,7 +11776,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B33" t="s">
         <v>575</v>
@@ -11785,7 +11799,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B34" t="s">
         <v>575</v>
@@ -11808,7 +11822,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>752</v>
+        <v>1079</v>
       </c>
       <c r="B35" t="s">
         <v>575</v>
@@ -11831,7 +11845,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B36" t="s">
         <v>341</v>
@@ -11849,12 +11863,12 @@
         <v>399</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -11877,7 +11891,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -11900,7 +11914,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -11923,7 +11937,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -11946,7 +11960,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -11969,7 +11983,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
@@ -11992,7 +12006,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B43" t="s">
         <v>215</v>
@@ -12015,7 +12029,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B44" t="s">
         <v>215</v>
@@ -12038,7 +12052,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B45" t="s">
         <v>267</v>
@@ -12061,7 +12075,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B46" t="s">
         <v>341</v>
@@ -12084,7 +12098,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B47" t="s">
         <v>436</v>
@@ -12107,7 +12121,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B48" t="s">
         <v>467</v>
@@ -12130,7 +12144,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B49" t="s">
         <v>467</v>
@@ -12153,7 +12167,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B50" t="s">
         <v>575</v>
@@ -12176,7 +12190,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B51" t="s">
         <v>575</v>
@@ -12199,7 +12213,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>753</v>
+        <v>1080</v>
       </c>
       <c r="B52" t="s">
         <v>575</v>
@@ -12217,12 +12231,12 @@
         <v>717</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -12245,7 +12259,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -12268,7 +12282,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -12291,7 +12305,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -12300,7 +12314,7 @@
         <v>329996</v>
       </c>
       <c r="D56" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -12314,7 +12328,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -12337,7 +12351,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B58" t="s">
         <v>215</v>
@@ -12360,7 +12374,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
@@ -12383,7 +12397,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B60" t="s">
         <v>341</v>
@@ -12406,7 +12420,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B61" t="s">
         <v>341</v>
@@ -12429,7 +12443,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B62" t="s">
         <v>341</v>
@@ -12452,7 +12466,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B63" t="s">
         <v>467</v>
@@ -12475,7 +12489,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B64" t="s">
         <v>467</v>
@@ -12498,7 +12512,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B65" t="s">
         <v>575</v>
@@ -12521,7 +12535,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B66" t="s">
         <v>575</v>
@@ -12544,7 +12558,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B67" t="s">
         <v>575</v>
@@ -12567,7 +12581,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B68" t="s">
         <v>683</v>
@@ -12590,7 +12604,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>754</v>
+        <v>1081</v>
       </c>
       <c r="B69" t="s">
         <v>570</v>
@@ -12613,7 +12627,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B70" t="s">
         <v>275</v>
@@ -12636,7 +12650,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
@@ -12659,7 +12673,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
@@ -12682,7 +12696,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
@@ -12705,7 +12719,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -12728,7 +12742,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
@@ -12751,7 +12765,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B76" t="s">
         <v>215</v>
@@ -12774,7 +12788,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B77" t="s">
         <v>312</v>
@@ -12797,7 +12811,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B78" t="s">
         <v>341</v>
@@ -12820,7 +12834,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B79" t="s">
         <v>341</v>
@@ -12843,7 +12857,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B80" t="s">
         <v>436</v>
@@ -12866,7 +12880,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B81" t="s">
         <v>467</v>
@@ -12889,7 +12903,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B82" t="s">
         <v>467</v>
@@ -12912,7 +12926,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B83" t="s">
         <v>575</v>
@@ -12935,7 +12949,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B84" t="s">
         <v>575</v>
@@ -12958,7 +12972,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B85" t="s">
         <v>575</v>
@@ -12981,7 +12995,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>755</v>
+        <v>1082</v>
       </c>
       <c r="B86" t="s">
         <v>556</v>
@@ -13004,7 +13018,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B87" t="s">
         <v>312</v>
@@ -13027,7 +13041,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -13050,7 +13064,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
@@ -13073,7 +13087,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -13096,7 +13110,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
@@ -13119,7 +13133,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B92" t="s">
         <v>215</v>
@@ -13142,7 +13156,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B93" t="s">
         <v>275</v>
@@ -13165,7 +13179,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B94" t="s">
         <v>341</v>
@@ -13188,7 +13202,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B95" t="s">
         <v>341</v>
@@ -13211,7 +13225,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B96" t="s">
         <v>436</v>
@@ -13234,7 +13248,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B97" t="s">
         <v>467</v>
@@ -13257,7 +13271,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B98" t="s">
         <v>467</v>
@@ -13280,7 +13294,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B99" t="s">
         <v>575</v>
@@ -13303,7 +13317,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B100" t="s">
         <v>575</v>
@@ -13326,7 +13340,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B101" t="s">
         <v>575</v>
@@ -13349,7 +13363,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B102" t="s">
         <v>556</v>
@@ -13372,7 +13386,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>756</v>
+        <v>1083</v>
       </c>
       <c r="B103" t="s">
         <v>683</v>
@@ -13395,7 +13409,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B104" t="s">
         <v>32</v>
@@ -13418,7 +13432,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B105" t="s">
         <v>312</v>
@@ -13441,7 +13455,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B106" t="s">
         <v>32</v>
@@ -13464,7 +13478,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B107" t="s">
         <v>32</v>
@@ -13487,7 +13501,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B108" t="s">
         <v>215</v>
@@ -13510,7 +13524,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B109" t="s">
         <v>275</v>
@@ -13533,7 +13547,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B110" t="s">
         <v>312</v>
@@ -13556,7 +13570,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B111" t="s">
         <v>341</v>
@@ -13579,7 +13593,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B112" t="s">
         <v>341</v>
@@ -13602,7 +13616,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B113" t="s">
         <v>341</v>
@@ -13625,7 +13639,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B114" t="s">
         <v>436</v>
@@ -13648,7 +13662,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B115" t="s">
         <v>467</v>
@@ -13671,7 +13685,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B116" t="s">
         <v>467</v>
@@ -13694,7 +13708,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B117" t="s">
         <v>575</v>
@@ -13717,7 +13731,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B118" t="s">
         <v>575</v>
@@ -13740,7 +13754,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B119" t="s">
         <v>575</v>
@@ -13763,7 +13777,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>757</v>
+        <v>1084</v>
       </c>
       <c r="B120" t="s">
         <v>556</v>
@@ -13786,7 +13800,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B121" t="s">
         <v>467</v>
@@ -13809,7 +13823,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B122" t="s">
         <v>467</v>
@@ -13832,7 +13846,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B123" t="s">
         <v>32</v>
@@ -13855,7 +13869,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B124" t="s">
         <v>32</v>
@@ -13878,7 +13892,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
@@ -13901,7 +13915,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B126" t="s">
         <v>32</v>
@@ -13924,7 +13938,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B127" t="s">
         <v>215</v>
@@ -13947,7 +13961,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B128" t="s">
         <v>275</v>
@@ -13970,7 +13984,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B129" t="s">
         <v>312</v>
@@ -13993,7 +14007,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B130" t="s">
         <v>341</v>
@@ -14016,7 +14030,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B131" t="s">
         <v>341</v>
@@ -14039,7 +14053,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B132" t="s">
         <v>436</v>
@@ -14062,7 +14076,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B133" t="s">
         <v>467</v>
@@ -14085,7 +14099,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B134" t="s">
         <v>575</v>
@@ -14108,7 +14122,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B135" t="s">
         <v>575</v>
@@ -14131,7 +14145,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B136" t="s">
         <v>575</v>
@@ -14154,7 +14168,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>758</v>
+        <v>1085</v>
       </c>
       <c r="B137" t="s">
         <v>556</v>
@@ -14177,7 +14191,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B138" t="s">
         <v>215</v>
@@ -14200,7 +14214,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B139" t="s">
         <v>467</v>
@@ -14223,7 +14237,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B140" t="s">
         <v>32</v>
@@ -14246,7 +14260,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B141" t="s">
         <v>32</v>
@@ -14269,7 +14283,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B142" t="s">
         <v>32</v>
@@ -14292,7 +14306,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B143" t="s">
         <v>32</v>
@@ -14315,7 +14329,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B144" t="s">
         <v>215</v>
@@ -14338,7 +14352,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B145" t="s">
         <v>275</v>
@@ -14361,7 +14375,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B146" t="s">
         <v>312</v>
@@ -14384,7 +14398,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B147" t="s">
         <v>341</v>
@@ -14407,7 +14421,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B148" t="s">
         <v>341</v>
@@ -14430,7 +14444,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B149" t="s">
         <v>436</v>
@@ -14453,7 +14467,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B150" t="s">
         <v>575</v>
@@ -14476,7 +14490,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B151" t="s">
         <v>575</v>
@@ -14499,7 +14513,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B152" t="s">
         <v>575</v>
@@ -14522,7 +14536,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B153" t="s">
         <v>575</v>
@@ -14545,7 +14559,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>759</v>
+        <v>1086</v>
       </c>
       <c r="B154" t="s">
         <v>575</v>
@@ -14568,7 +14582,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B155" t="s">
         <v>575</v>
@@ -14591,7 +14605,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B156" t="s">
         <v>215</v>
@@ -14614,7 +14628,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B157" t="s">
         <v>32</v>
@@ -14637,7 +14651,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B158" t="s">
         <v>32</v>
@@ -14660,7 +14674,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B159" t="s">
         <v>32</v>
@@ -14683,7 +14697,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B160" t="s">
         <v>32</v>
@@ -14706,7 +14720,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B161" t="s">
         <v>215</v>
@@ -14729,7 +14743,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B162" t="s">
         <v>275</v>
@@ -14752,7 +14766,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B163" t="s">
         <v>683</v>
@@ -14775,7 +14789,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B164" t="s">
         <v>341</v>
@@ -14798,7 +14812,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B165" t="s">
         <v>436</v>
@@ -14821,7 +14835,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B166" t="s">
         <v>467</v>
@@ -14844,7 +14858,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B167" t="s">
         <v>575</v>
@@ -14867,7 +14881,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B168" t="s">
         <v>575</v>
@@ -14890,7 +14904,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B169" t="s">
         <v>575</v>
@@ -14913,7 +14927,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B170" t="s">
         <v>575</v>
@@ -14936,7 +14950,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>760</v>
+        <v>1087</v>
       </c>
       <c r="B171" t="s">
         <v>575</v>
@@ -14959,7 +14973,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B172" t="s">
         <v>575</v>
@@ -14982,7 +14996,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B173" t="s">
         <v>575</v>
@@ -15005,7 +15019,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B174" t="s">
         <v>32</v>
@@ -15028,7 +15042,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B175" t="s">
         <v>32</v>
@@ -15051,7 +15065,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B176" t="s">
         <v>32</v>
@@ -15074,7 +15088,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B177" t="s">
         <v>32</v>
@@ -15097,7 +15111,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B178" t="s">
         <v>32</v>
@@ -15120,7 +15134,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B179" t="s">
         <v>215</v>
@@ -15143,7 +15157,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B180" t="s">
         <v>275</v>
@@ -15166,7 +15180,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B181" t="s">
         <v>341</v>
@@ -15189,7 +15203,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B182" t="s">
         <v>467</v>
@@ -15212,7 +15226,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B183" t="s">
         <v>467</v>
@@ -15235,7 +15249,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B184" t="s">
         <v>575</v>
@@ -15258,7 +15272,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B185" t="s">
         <v>575</v>
@@ -15281,7 +15295,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B186" t="s">
         <v>575</v>
@@ -15304,7 +15318,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B187" t="s">
         <v>575</v>
@@ -15327,7 +15341,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>761</v>
+        <v>1088</v>
       </c>
       <c r="B188" t="s">
         <v>575</v>
@@ -15350,7 +15364,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B189" t="s">
         <v>341</v>
@@ -15373,7 +15387,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B190" t="s">
         <v>436</v>
@@ -15396,7 +15410,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B191" t="s">
         <v>575</v>
@@ -15419,7 +15433,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B192" t="s">
         <v>32</v>
@@ -15442,7 +15456,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B193" t="s">
         <v>32</v>
@@ -15465,7 +15479,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B194" t="s">
         <v>32</v>
@@ -15488,7 +15502,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B195" t="s">
         <v>32</v>
@@ -15511,7 +15525,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B196" t="s">
         <v>215</v>
@@ -15534,7 +15548,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B197" t="s">
         <v>275</v>
@@ -15557,7 +15571,7 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B198" t="s">
         <v>341</v>
@@ -15580,7 +15594,7 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B199" t="s">
         <v>341</v>
@@ -15603,7 +15617,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B200" t="s">
         <v>467</v>
@@ -15626,7 +15640,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B201" t="s">
         <v>467</v>
@@ -15649,7 +15663,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B202" t="s">
         <v>575</v>
@@ -15672,7 +15686,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B203" t="s">
         <v>575</v>
@@ -15695,7 +15709,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="B204" t="s">
         <v>575</v>
@@ -15718,7 +15732,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="C205" s="159" t="s">
         <v>1056</v>
@@ -15858,13 +15872,13 @@
         <v>766</v>
       </c>
       <c r="C213" s="159" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="D213" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="E213" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -15892,13 +15906,13 @@
         <v>766</v>
       </c>
       <c r="C215" s="159" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="D215" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="E215" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -15909,13 +15923,13 @@
         <v>766</v>
       </c>
       <c r="C216" s="159" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="D216" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="E216" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -15926,13 +15940,13 @@
         <v>766</v>
       </c>
       <c r="C217" s="159" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="D217" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="E217" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -15940,7 +15954,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C218" s="159" t="s">
         <v>847</v>
@@ -15957,7 +15971,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C219" s="159" t="s">
         <v>1020</v>
@@ -15974,7 +15988,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C220" s="159" t="s">
         <v>855</v>
@@ -15991,7 +16005,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C221" s="159" t="s">
         <v>849</v>
@@ -16008,7 +16022,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C222" s="159" t="s">
         <v>878</v>
@@ -16025,7 +16039,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C223" s="159" t="s">
         <v>859</v>
